--- a/biology/Médecine/Thomas_Frieden/Thomas_Frieden.xlsx
+++ b/biology/Médecine/Thomas_Frieden/Thomas_Frieden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas R. Frieden est un médecin américain. Spécialisé dans le domaine des maladies infectieuses, il a été directeur des Centres pour le contrôle et la prévention des maladies (CDC) et administrateur de l'Agency for Toxic Substances and Disease Registry[1]. Il a également été commissaire du New York City Department of Health and Mental Hygiene (en) de 2002 à 2009.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas R. Frieden est un médecin américain. Spécialisé dans le domaine des maladies infectieuses, il a été directeur des Centres pour le contrôle et la prévention des maladies (CDC) et administrateur de l'Agency for Toxic Substances and Disease Registry. Il a également été commissaire du New York City Department of Health and Mental Hygiene (en) de 2002 à 2009.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frieden obtient un baccalauréat universitaire ès lettres de l'Oberlin College en 1982, puis un M.P.H. de la Columbia University Mailman School of Public Health (en) en 1985 et un M.D. du Columbia University College of Physicians and Surgeons (en) en 1986. Il fait sa résidence au Centre médical de l'université Columbia et complète une sous-spécialité en maladies infectieuses à la Yale School of Medicine (en) et au Yale–New Haven Hospital (en).
-Frieden travaille sur la tuberculose humaine à New York, d'abord en tant qu'officier de l'Epidemic Intelligence Service (en), puis comme assistant commissaire à la santé et directeur du DOHMH Bureau of Tuberculosis Control[2],[3].
+Frieden travaille sur la tuberculose humaine à New York, d'abord en tant qu'officier de l'Epidemic Intelligence Service (en), puis comme assistant commissaire à la santé et directeur du DOHMH Bureau of Tuberculosis Control,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) T. R. Frieden et J Mermin, « Applying Public Health Principles to the HIV Epidemic – How Are We Doing? », N Engl J Med, vol. 373, no 23,‎ 3 décembre 2015, p. 2281–2287 (PMID 26624243, DOI 10.1056/NEJMms1513641)
 (en) T. R. Frieden, « Shattuck Lecture: The Future of Public Health », N Engl J Med, vol. 373, no 18,‎ 29 octobre 2015, p. 1748–1754 (PMID 26510022, DOI 10.1056/NEJMsa1511248)
